--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Sưachinhsachcongty_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Sưachinhsachcongty_ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB9900A-BB26-4207-A9C0-CF610E2219CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36149D23-F76B-4842-864A-32A7F7419BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="171">
   <si>
     <t>Author</t>
   </si>
@@ -587,9 +587,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nhập kí tự trống </t>
-  </si>
-  <si>
-    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -1378,6 +1375,27 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1402,27 +1420,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1483,6 +1480,69 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1490,69 +1550,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1878,8 +1875,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1894,31 +1891,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1966,7 +1963,9 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <v>43949</v>
+      </c>
       <c r="D9" s="10" t="s">
         <v>54</v>
       </c>
@@ -1978,7 +1977,9 @@
       <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12">
+        <v>43953</v>
+      </c>
       <c r="D10" s="10" t="s">
         <v>54</v>
       </c>
@@ -1993,21 +1994,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -2016,54 +2017,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="59"/>
+      <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2090,7 +2091,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2555,8 +2556,8 @@
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
+      <pane ySplit="3" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2574,17 +2575,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2623,32 +2624,32 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
     </row>
     <row r="5" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85">
+      <c r="A5" s="82">
         <v>1</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="92" t="s">
         <v>71</v>
       </c>
       <c r="F5" s="44">
@@ -2661,16 +2662,16 @@
       <c r="I5" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="82" t="s">
+      <c r="J5" s="103" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="92"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="44">
         <v>2</v>
       </c>
@@ -2681,14 +2682,14 @@
       <c r="I6" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="83"/>
+      <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="92"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="44">
         <v>3</v>
       </c>
@@ -2699,14 +2700,14 @@
       <c r="I7" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="83"/>
+      <c r="J7" s="104"/>
     </row>
     <row r="8" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="92"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="93"/>
       <c r="F8" s="44">
         <v>4</v>
       </c>
@@ -2717,14 +2718,14 @@
       <c r="I8" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="104"/>
     </row>
     <row r="9" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="92"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="44">
         <v>5</v>
       </c>
@@ -2735,14 +2736,14 @@
       <c r="I9" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="83"/>
+      <c r="J9" s="104"/>
     </row>
     <row r="10" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="92"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="44">
         <v>6</v>
       </c>
@@ -2755,14 +2756,14 @@
       <c r="I10" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="83"/>
+      <c r="J10" s="104"/>
     </row>
     <row r="11" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="92"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="44">
         <v>7</v>
       </c>
@@ -2773,14 +2774,14 @@
       <c r="I11" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="83"/>
+      <c r="J11" s="104"/>
     </row>
     <row r="12" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="92"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="44">
         <v>8</v>
       </c>
@@ -2791,22 +2792,22 @@
       <c r="I12" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="84"/>
+      <c r="J12" s="105"/>
     </row>
     <row r="13" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85">
+      <c r="A13" s="82">
         <v>1</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="92" t="s">
         <v>71</v>
       </c>
       <c r="F13" s="44">
@@ -2819,16 +2820,16 @@
       <c r="I13" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="82" t="s">
+      <c r="J13" s="103" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="86"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="92"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="93"/>
       <c r="F14" s="44">
         <v>2</v>
       </c>
@@ -2839,14 +2840,14 @@
       <c r="I14" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="83"/>
+      <c r="J14" s="104"/>
     </row>
     <row r="15" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="92"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="44">
         <v>3</v>
       </c>
@@ -2857,14 +2858,14 @@
       <c r="I15" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="83"/>
+      <c r="J15" s="104"/>
     </row>
     <row r="16" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="92"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="44">
         <v>4</v>
       </c>
@@ -2875,14 +2876,14 @@
       <c r="I16" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="83"/>
+      <c r="J16" s="104"/>
     </row>
     <row r="17" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="92"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="44">
         <v>5</v>
       </c>
@@ -2893,14 +2894,14 @@
       <c r="I17" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="J17" s="83"/>
+      <c r="J17" s="104"/>
     </row>
     <row r="18" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="92"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="44">
         <v>6</v>
       </c>
@@ -2913,14 +2914,14 @@
       <c r="I18" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="83"/>
+      <c r="J18" s="104"/>
     </row>
     <row r="19" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="92"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="44">
         <v>7</v>
       </c>
@@ -2933,14 +2934,14 @@
       <c r="I19" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="83"/>
+      <c r="J19" s="104"/>
     </row>
     <row r="20" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="92"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="44">
         <v>8</v>
       </c>
@@ -2951,22 +2952,22 @@
       <c r="I20" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="84"/>
+      <c r="J20" s="105"/>
     </row>
     <row r="21" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="85">
+      <c r="A21" s="82">
         <v>1</v>
       </c>
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="89" t="s">
+      <c r="D21" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="E21" s="91" t="s">
+      <c r="E21" s="92" t="s">
         <v>71</v>
       </c>
       <c r="F21" s="44">
@@ -2979,16 +2980,16 @@
       <c r="I21" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="82" t="s">
+      <c r="J21" s="103" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="86"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="92"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="93"/>
       <c r="F22" s="44">
         <v>2</v>
       </c>
@@ -2999,14 +3000,14 @@
       <c r="I22" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="83"/>
+      <c r="J22" s="104"/>
     </row>
     <row r="23" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="92"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="44">
         <v>3</v>
       </c>
@@ -3017,14 +3018,14 @@
       <c r="I23" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="83"/>
+      <c r="J23" s="104"/>
     </row>
     <row r="24" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="92"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="44">
         <v>4</v>
       </c>
@@ -3035,14 +3036,14 @@
       <c r="I24" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J24" s="83"/>
+      <c r="J24" s="104"/>
     </row>
     <row r="25" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="92"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="93"/>
       <c r="F25" s="44">
         <v>5</v>
       </c>
@@ -3055,20 +3056,20 @@
       <c r="I25" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="J25" s="84"/>
+      <c r="J25" s="105"/>
     </row>
     <row r="26" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="85">
+      <c r="A26" s="82">
         <v>1</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="87" t="s">
+      <c r="B26" s="87"/>
+      <c r="C26" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="89" t="s">
+      <c r="D26" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="91" t="s">
+      <c r="E26" s="92" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="44">
@@ -3081,16 +3082,16 @@
       <c r="I26" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="82" t="s">
-        <v>171</v>
+      <c r="J26" s="103" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="86"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="92"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="44">
         <v>2</v>
       </c>
@@ -3101,14 +3102,14 @@
       <c r="I27" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="83"/>
+      <c r="J27" s="104"/>
     </row>
     <row r="28" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="86"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="92"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="93"/>
       <c r="F28" s="44">
         <v>3</v>
       </c>
@@ -3119,14 +3120,14 @@
       <c r="I28" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J28" s="83"/>
+      <c r="J28" s="104"/>
     </row>
     <row r="29" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="92"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="44">
         <v>4</v>
       </c>
@@ -3137,14 +3138,14 @@
       <c r="I29" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J29" s="83"/>
+      <c r="J29" s="104"/>
     </row>
     <row r="30" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="86"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="92"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="93"/>
       <c r="F30" s="44">
         <v>5</v>
       </c>
@@ -3157,22 +3158,22 @@
       <c r="I30" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="J30" s="84"/>
+      <c r="J30" s="105"/>
     </row>
     <row r="31" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="85">
+      <c r="A31" s="82">
         <v>1</v>
       </c>
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="89" t="s">
+      <c r="D31" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="91" t="s">
+      <c r="E31" s="92" t="s">
         <v>71</v>
       </c>
       <c r="F31" s="44">
@@ -3185,16 +3186,16 @@
       <c r="I31" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J31" s="82" t="s">
+      <c r="J31" s="103" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="86"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="92"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="44">
         <v>2</v>
       </c>
@@ -3205,14 +3206,14 @@
       <c r="I32" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J32" s="83"/>
+      <c r="J32" s="104"/>
     </row>
     <row r="33" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="86"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="92"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="44">
         <v>3</v>
       </c>
@@ -3223,14 +3224,14 @@
       <c r="I33" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J33" s="83"/>
+      <c r="J33" s="104"/>
     </row>
     <row r="34" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="86"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="92"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="93"/>
       <c r="F34" s="44">
         <v>4</v>
       </c>
@@ -3241,14 +3242,14 @@
       <c r="I34" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J34" s="83"/>
+      <c r="J34" s="104"/>
     </row>
     <row r="35" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="86"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="92"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="44">
         <v>5</v>
       </c>
@@ -3259,14 +3260,14 @@
       <c r="I35" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="J35" s="83"/>
+      <c r="J35" s="104"/>
     </row>
     <row r="36" spans="1:10" s="43" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="86"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="92"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="93"/>
       <c r="F36" s="44">
         <v>6</v>
       </c>
@@ -3279,14 +3280,14 @@
       <c r="I36" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J36" s="83"/>
+      <c r="J36" s="104"/>
     </row>
     <row r="37" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="86"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="92"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="44">
         <v>7</v>
       </c>
@@ -3299,14 +3300,14 @@
       <c r="I37" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="J37" s="83"/>
+      <c r="J37" s="104"/>
     </row>
     <row r="38" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="86"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="92"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="93"/>
       <c r="F38" s="44">
         <v>8</v>
       </c>
@@ -3317,22 +3318,22 @@
       <c r="I38" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="J38" s="83"/>
+      <c r="J38" s="104"/>
     </row>
     <row r="39" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="85">
+      <c r="A39" s="82">
         <v>1</v>
       </c>
-      <c r="B39" s="87" t="s">
+      <c r="B39" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="87" t="s">
+      <c r="C39" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="89" t="s">
+      <c r="D39" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="E39" s="91" t="s">
+      <c r="E39" s="92" t="s">
         <v>71</v>
       </c>
       <c r="F39" s="44">
@@ -3345,16 +3346,16 @@
       <c r="I39" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J39" s="82" t="s">
+      <c r="J39" s="103" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="86"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="92"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="93"/>
       <c r="F40" s="44">
         <v>2</v>
       </c>
@@ -3365,14 +3366,14 @@
       <c r="I40" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J40" s="83"/>
+      <c r="J40" s="104"/>
     </row>
     <row r="41" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="86"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="92"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="93"/>
       <c r="F41" s="44">
         <v>3</v>
       </c>
@@ -3383,14 +3384,14 @@
       <c r="I41" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J41" s="83"/>
+      <c r="J41" s="104"/>
     </row>
     <row r="42" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="86"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="92"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="93"/>
       <c r="F42" s="44">
         <v>4</v>
       </c>
@@ -3401,14 +3402,14 @@
       <c r="I42" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J42" s="83"/>
+      <c r="J42" s="104"/>
     </row>
     <row r="43" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="86"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="92"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="93"/>
       <c r="F43" s="44">
         <v>5</v>
       </c>
@@ -3419,14 +3420,14 @@
       <c r="I43" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="J43" s="83"/>
+      <c r="J43" s="104"/>
     </row>
     <row r="44" spans="1:10" s="43" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="86"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="92"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="93"/>
       <c r="F44" s="44">
         <v>6</v>
       </c>
@@ -3439,14 +3440,14 @@
       <c r="I44" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="J44" s="83"/>
+      <c r="J44" s="104"/>
     </row>
     <row r="45" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="86"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="92"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="93"/>
       <c r="F45" s="44">
         <v>7</v>
       </c>
@@ -3459,14 +3460,14 @@
       <c r="I45" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="83"/>
+      <c r="J45" s="104"/>
     </row>
     <row r="46" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="86"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="92"/>
+      <c r="A46" s="83"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="93"/>
       <c r="F46" s="44">
         <v>8</v>
       </c>
@@ -3477,35 +3478,35 @@
       <c r="I46" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="J46" s="84"/>
+      <c r="J46" s="105"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
     </row>
     <row r="48" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="85">
+      <c r="A48" s="82">
         <v>21</v>
       </c>
-      <c r="B48" s="94" t="s">
+      <c r="B48" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="89" t="s">
+      <c r="D48" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="E48" s="89"/>
+      <c r="E48" s="88"/>
       <c r="F48" s="44">
         <v>1</v>
       </c>
@@ -3516,16 +3517,16 @@
       <c r="I48" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J48" s="82" t="s">
+      <c r="J48" s="103" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="86"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
+      <c r="A49" s="83"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
       <c r="F49" s="44">
         <v>2</v>
       </c>
@@ -3536,14 +3537,14 @@
       <c r="I49" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J49" s="83"/>
+      <c r="J49" s="104"/>
     </row>
     <row r="50" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="86"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
+      <c r="A50" s="83"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
       <c r="F50" s="44">
         <v>3</v>
       </c>
@@ -3554,14 +3555,14 @@
       <c r="I50" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="J50" s="83"/>
+      <c r="J50" s="104"/>
     </row>
     <row r="51" spans="1:10" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="86"/>
-      <c r="B51" s="95"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
+      <c r="A51" s="83"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
       <c r="F51" s="44">
         <v>4</v>
       </c>
@@ -3572,22 +3573,22 @@
       <c r="I51" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="J51" s="84"/>
+      <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="85">
+      <c r="A52" s="82">
         <v>21</v>
       </c>
-      <c r="B52" s="94" t="s">
+      <c r="B52" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="87" t="s">
+      <c r="C52" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="89" t="s">
+      <c r="D52" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="E52" s="89"/>
+      <c r="E52" s="88"/>
       <c r="F52" s="44">
         <v>1</v>
       </c>
@@ -3598,16 +3599,16 @@
       <c r="I52" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="82" t="s">
+      <c r="J52" s="103" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="86"/>
-      <c r="B53" s="95"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
+      <c r="A53" s="83"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
       <c r="F53" s="44">
         <v>2</v>
       </c>
@@ -3618,14 +3619,14 @@
       <c r="I53" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J53" s="83"/>
+      <c r="J53" s="104"/>
     </row>
     <row r="54" spans="1:10" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="86"/>
-      <c r="B54" s="95"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
+      <c r="A54" s="83"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
       <c r="F54" s="44">
         <v>3</v>
       </c>
@@ -3636,22 +3637,22 @@
       <c r="I54" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="J54" s="84"/>
+      <c r="J54" s="105"/>
     </row>
     <row r="55" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="85">
+      <c r="A55" s="82">
         <v>21</v>
       </c>
-      <c r="B55" s="94" t="s">
+      <c r="B55" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="87" t="s">
+      <c r="C55" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="D55" s="89" t="s">
+      <c r="D55" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="89"/>
+      <c r="E55" s="88"/>
       <c r="F55" s="44">
         <v>1</v>
       </c>
@@ -3662,16 +3663,16 @@
       <c r="I55" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J55" s="82" t="s">
+      <c r="J55" s="103" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="86"/>
-      <c r="B56" s="95"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
+      <c r="A56" s="83"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
       <c r="F56" s="44">
         <v>2</v>
       </c>
@@ -3682,14 +3683,14 @@
       <c r="I56" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J56" s="83"/>
+      <c r="J56" s="104"/>
     </row>
     <row r="57" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="86"/>
-      <c r="B57" s="95"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
+      <c r="A57" s="83"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
       <c r="F57" s="44">
         <v>3</v>
       </c>
@@ -3700,14 +3701,14 @@
       <c r="I57" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J57" s="83"/>
+      <c r="J57" s="104"/>
     </row>
     <row r="58" spans="1:10" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="86"/>
-      <c r="B58" s="95"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
+      <c r="A58" s="83"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
       <c r="F58" s="44">
         <v>4</v>
       </c>
@@ -3718,22 +3719,22 @@
       <c r="I58" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J58" s="84"/>
+      <c r="J58" s="105"/>
     </row>
     <row r="59" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="85">
+      <c r="A59" s="82">
         <v>21</v>
       </c>
-      <c r="B59" s="94" t="s">
+      <c r="B59" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="87" t="s">
+      <c r="C59" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="89" t="s">
+      <c r="D59" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="89"/>
+      <c r="E59" s="88"/>
       <c r="F59" s="44">
         <v>1</v>
       </c>
@@ -3744,16 +3745,16 @@
       <c r="I59" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J59" s="82" t="s">
+      <c r="J59" s="103" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="86"/>
-      <c r="B60" s="95"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
+      <c r="A60" s="83"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
       <c r="F60" s="44">
         <v>2</v>
       </c>
@@ -3764,14 +3765,14 @@
       <c r="I60" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J60" s="83"/>
+      <c r="J60" s="104"/>
     </row>
     <row r="61" spans="1:10" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="86"/>
-      <c r="B61" s="95"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90"/>
+      <c r="A61" s="83"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="89"/>
       <c r="F61" s="44">
         <v>3</v>
       </c>
@@ -3782,20 +3783,20 @@
       <c r="I61" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J61" s="84"/>
+      <c r="J61" s="105"/>
     </row>
     <row r="62" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="99"/>
-      <c r="B62" s="101" t="s">
+      <c r="A62" s="94"/>
+      <c r="B62" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="99" t="s">
+      <c r="C62" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="96" t="s">
+      <c r="D62" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="E62" s="96"/>
+      <c r="E62" s="99"/>
       <c r="F62" s="44">
         <v>1</v>
       </c>
@@ -3806,16 +3807,16 @@
       <c r="I62" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J62" s="82" t="s">
+      <c r="J62" s="103" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="88"/>
-      <c r="B63" s="95"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
+      <c r="A63" s="87"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
       <c r="F63" s="44">
         <v>2</v>
       </c>
@@ -3826,14 +3827,14 @@
       <c r="I63" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J63" s="83"/>
+      <c r="J63" s="104"/>
     </row>
     <row r="64" spans="1:10" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="88"/>
-      <c r="B64" s="95"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
       <c r="F64" s="44">
         <v>3</v>
       </c>
@@ -3844,14 +3845,14 @@
       <c r="I64" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="J64" s="83"/>
+      <c r="J64" s="104"/>
     </row>
     <row r="65" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="88"/>
-      <c r="B65" s="95"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
+      <c r="A65" s="87"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
       <c r="F65" s="44">
         <v>4</v>
       </c>
@@ -3862,14 +3863,14 @@
       <c r="I65" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="J65" s="83"/>
+      <c r="J65" s="104"/>
     </row>
     <row r="66" spans="1:10" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="100"/>
-      <c r="B66" s="102"/>
-      <c r="C66" s="100"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="98"/>
+      <c r="A66" s="95"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="100"/>
+      <c r="E66" s="100"/>
       <c r="F66" s="44">
         <v>5</v>
       </c>
@@ -3880,20 +3881,20 @@
       <c r="I66" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="J66" s="84"/>
+      <c r="J66" s="105"/>
     </row>
     <row r="67" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="99"/>
-      <c r="B67" s="101" t="s">
+      <c r="A67" s="94"/>
+      <c r="B67" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="99" t="s">
+      <c r="C67" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="D67" s="96" t="s">
+      <c r="D67" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="E67" s="96"/>
+      <c r="E67" s="99"/>
       <c r="F67" s="44">
         <v>1</v>
       </c>
@@ -3904,16 +3905,16 @@
       <c r="I67" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J67" s="82" t="s">
+      <c r="J67" s="103" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="88"/>
-      <c r="B68" s="95"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
+      <c r="A68" s="87"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
       <c r="F68" s="44">
         <v>2</v>
       </c>
@@ -3924,14 +3925,14 @@
       <c r="I68" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J68" s="83"/>
+      <c r="J68" s="104"/>
     </row>
     <row r="69" spans="1:10" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="88"/>
-      <c r="B69" s="95"/>
-      <c r="C69" s="88"/>
-      <c r="D69" s="90"/>
-      <c r="E69" s="90"/>
+      <c r="A69" s="87"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
       <c r="F69" s="44">
         <v>3</v>
       </c>
@@ -3942,14 +3943,14 @@
       <c r="I69" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="J69" s="83"/>
+      <c r="J69" s="104"/>
     </row>
     <row r="70" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="88"/>
-      <c r="B70" s="95"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="90"/>
-      <c r="E70" s="90"/>
+      <c r="A70" s="87"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="87"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="89"/>
       <c r="F70" s="44">
         <v>4</v>
       </c>
@@ -3960,14 +3961,14 @@
       <c r="I70" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="J70" s="83"/>
+      <c r="J70" s="104"/>
     </row>
     <row r="71" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="88"/>
-      <c r="B71" s="95"/>
-      <c r="C71" s="88"/>
-      <c r="D71" s="90"/>
-      <c r="E71" s="90"/>
+      <c r="A71" s="87"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
       <c r="F71" s="44">
         <v>5</v>
       </c>
@@ -3978,14 +3979,14 @@
       <c r="I71" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="J71" s="83"/>
+      <c r="J71" s="104"/>
     </row>
     <row r="72" spans="1:10" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="93"/>
-      <c r="B72" s="104"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="97"/>
+      <c r="A72" s="96"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="102"/>
+      <c r="E72" s="102"/>
       <c r="F72" s="44">
         <v>6</v>
       </c>
@@ -3996,22 +3997,22 @@
       <c r="I72" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="J72" s="84"/>
+      <c r="J72" s="105"/>
     </row>
     <row r="73" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="85">
+      <c r="A73" s="82">
         <v>1</v>
       </c>
-      <c r="B73" s="94" t="s">
+      <c r="B73" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="87" t="s">
+      <c r="C73" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="D73" s="89" t="s">
+      <c r="D73" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="E73" s="91" t="s">
+      <c r="E73" s="92" t="s">
         <v>71</v>
       </c>
       <c r="F73" s="44">
@@ -4024,16 +4025,16 @@
       <c r="I73" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J73" s="82" t="s">
+      <c r="J73" s="103" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="86"/>
-      <c r="B74" s="95"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="90"/>
-      <c r="E74" s="92"/>
+      <c r="A74" s="83"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="93"/>
       <c r="F74" s="44">
         <v>2</v>
       </c>
@@ -4044,14 +4045,14 @@
       <c r="I74" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J74" s="83"/>
+      <c r="J74" s="104"/>
     </row>
     <row r="75" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="86"/>
-      <c r="B75" s="95"/>
-      <c r="C75" s="88"/>
-      <c r="D75" s="90"/>
-      <c r="E75" s="92"/>
+      <c r="A75" s="83"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="87"/>
+      <c r="D75" s="89"/>
+      <c r="E75" s="93"/>
       <c r="F75" s="44">
         <v>3</v>
       </c>
@@ -4062,14 +4063,14 @@
       <c r="I75" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J75" s="83"/>
+      <c r="J75" s="104"/>
     </row>
     <row r="76" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="86"/>
-      <c r="B76" s="95"/>
-      <c r="C76" s="88"/>
-      <c r="D76" s="90"/>
-      <c r="E76" s="92"/>
+      <c r="A76" s="83"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="93"/>
       <c r="F76" s="44">
         <v>4</v>
       </c>
@@ -4080,14 +4081,14 @@
       <c r="I76" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J76" s="83"/>
+      <c r="J76" s="104"/>
     </row>
     <row r="77" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="86"/>
-      <c r="B77" s="95"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="92"/>
+      <c r="A77" s="83"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="93"/>
       <c r="F77" s="44">
         <v>5</v>
       </c>
@@ -4098,14 +4099,14 @@
         <v>84</v>
       </c>
       <c r="I77" s="40"/>
-      <c r="J77" s="83"/>
+      <c r="J77" s="104"/>
     </row>
     <row r="78" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="86"/>
-      <c r="B78" s="95"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="92"/>
+      <c r="A78" s="83"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="93"/>
       <c r="F78" s="44">
         <v>6</v>
       </c>
@@ -4116,14 +4117,14 @@
       <c r="I78" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="J78" s="83"/>
+      <c r="J78" s="104"/>
     </row>
     <row r="79" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="86"/>
-      <c r="B79" s="95"/>
-      <c r="C79" s="88"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="92"/>
+      <c r="A79" s="83"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="87"/>
+      <c r="D79" s="89"/>
+      <c r="E79" s="93"/>
       <c r="F79" s="44">
         <v>7</v>
       </c>
@@ -4136,14 +4137,14 @@
       <c r="I79" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="J79" s="83"/>
+      <c r="J79" s="104"/>
     </row>
     <row r="80" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="86"/>
-      <c r="B80" s="95"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="92"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="93"/>
       <c r="F80" s="44">
         <v>8</v>
       </c>
@@ -4156,14 +4157,14 @@
       <c r="I80" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="J80" s="83"/>
+      <c r="J80" s="104"/>
     </row>
     <row r="81" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="86"/>
-      <c r="B81" s="95"/>
-      <c r="C81" s="88"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="92"/>
+      <c r="A81" s="83"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="87"/>
+      <c r="D81" s="89"/>
+      <c r="E81" s="93"/>
       <c r="F81" s="44">
         <v>9</v>
       </c>
@@ -4174,22 +4175,22 @@
       <c r="I81" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="J81" s="84"/>
+      <c r="J81" s="105"/>
     </row>
     <row r="82" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="85">
+      <c r="A82" s="82">
         <v>1</v>
       </c>
-      <c r="B82" s="94" t="s">
+      <c r="B82" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="C82" s="87" t="s">
+      <c r="C82" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="D82" s="89" t="s">
+      <c r="D82" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="E82" s="91" t="s">
+      <c r="E82" s="92" t="s">
         <v>71</v>
       </c>
       <c r="F82" s="44">
@@ -4202,16 +4203,16 @@
       <c r="I82" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J82" s="82" t="s">
+      <c r="J82" s="103" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="86"/>
-      <c r="B83" s="95"/>
-      <c r="C83" s="88"/>
-      <c r="D83" s="90"/>
-      <c r="E83" s="92"/>
+      <c r="A83" s="83"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="87"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="93"/>
       <c r="F83" s="44">
         <v>2</v>
       </c>
@@ -4222,14 +4223,14 @@
       <c r="I83" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J83" s="83"/>
+      <c r="J83" s="104"/>
     </row>
     <row r="84" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="86"/>
-      <c r="B84" s="95"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="90"/>
-      <c r="E84" s="92"/>
+      <c r="A84" s="83"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="87"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="93"/>
       <c r="F84" s="44">
         <v>3</v>
       </c>
@@ -4240,14 +4241,14 @@
       <c r="I84" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J84" s="83"/>
+      <c r="J84" s="104"/>
     </row>
     <row r="85" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="86"/>
-      <c r="B85" s="95"/>
-      <c r="C85" s="88"/>
-      <c r="D85" s="90"/>
-      <c r="E85" s="92"/>
+      <c r="A85" s="83"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="87"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="93"/>
       <c r="F85" s="44">
         <v>4</v>
       </c>
@@ -4258,14 +4259,14 @@
       <c r="I85" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J85" s="83"/>
+      <c r="J85" s="104"/>
     </row>
     <row r="86" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="86"/>
-      <c r="B86" s="95"/>
-      <c r="C86" s="88"/>
-      <c r="D86" s="90"/>
-      <c r="E86" s="92"/>
+      <c r="A86" s="83"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="87"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="93"/>
       <c r="F86" s="44">
         <v>6</v>
       </c>
@@ -4276,14 +4277,14 @@
       <c r="I86" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="J86" s="83"/>
+      <c r="J86" s="104"/>
     </row>
     <row r="87" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="86"/>
-      <c r="B87" s="95"/>
-      <c r="C87" s="88"/>
-      <c r="D87" s="90"/>
-      <c r="E87" s="92"/>
+      <c r="A87" s="83"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="87"/>
+      <c r="D87" s="89"/>
+      <c r="E87" s="93"/>
       <c r="F87" s="44">
         <v>7</v>
       </c>
@@ -4296,14 +4297,14 @@
       <c r="I87" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="J87" s="83"/>
+      <c r="J87" s="104"/>
     </row>
     <row r="88" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="86"/>
-      <c r="B88" s="95"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="92"/>
+      <c r="A88" s="83"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="93"/>
       <c r="F88" s="44">
         <v>8</v>
       </c>
@@ -4314,14 +4315,14 @@
       <c r="I88" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="J88" s="83"/>
+      <c r="J88" s="104"/>
     </row>
     <row r="89" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="86"/>
-      <c r="B89" s="95"/>
-      <c r="C89" s="88"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="92"/>
+      <c r="A89" s="83"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="87"/>
+      <c r="D89" s="89"/>
+      <c r="E89" s="93"/>
       <c r="F89" s="44">
         <v>9</v>
       </c>
@@ -4332,22 +4333,22 @@
       <c r="I89" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="J89" s="84"/>
+      <c r="J89" s="105"/>
     </row>
     <row r="90" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="85">
+      <c r="A90" s="82">
         <v>1</v>
       </c>
-      <c r="B90" s="94" t="s">
+      <c r="B90" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="C90" s="87" t="s">
+      <c r="C90" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="D90" s="89" t="s">
+      <c r="D90" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="E90" s="91" t="s">
+      <c r="E90" s="92" t="s">
         <v>71</v>
       </c>
       <c r="F90" s="44">
@@ -4360,16 +4361,16 @@
       <c r="I90" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J90" s="82" t="s">
+      <c r="J90" s="103" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="86"/>
-      <c r="B91" s="95"/>
-      <c r="C91" s="88"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="92"/>
+      <c r="A91" s="83"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="89"/>
+      <c r="E91" s="93"/>
       <c r="F91" s="44">
         <v>2</v>
       </c>
@@ -4380,14 +4381,14 @@
       <c r="I91" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="J91" s="83"/>
+      <c r="J91" s="104"/>
     </row>
     <row r="92" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="86"/>
-      <c r="B92" s="95"/>
-      <c r="C92" s="88"/>
-      <c r="D92" s="90"/>
-      <c r="E92" s="92"/>
+      <c r="A92" s="83"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="87"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="93"/>
       <c r="F92" s="44">
         <v>3</v>
       </c>
@@ -4398,14 +4399,14 @@
       <c r="I92" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J92" s="83"/>
+      <c r="J92" s="104"/>
     </row>
     <row r="93" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="86"/>
-      <c r="B93" s="95"/>
-      <c r="C93" s="88"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="92"/>
+      <c r="A93" s="83"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="87"/>
+      <c r="D93" s="89"/>
+      <c r="E93" s="93"/>
       <c r="F93" s="44">
         <v>4</v>
       </c>
@@ -4416,22 +4417,74 @@
       <c r="I93" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="J93" s="84"/>
+      <c r="J93" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="E5:E12"/>
+    <mergeCell ref="J90:J93"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="B21:B30"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="J62:J66"/>
+    <mergeCell ref="J67:J72"/>
+    <mergeCell ref="J73:J81"/>
+    <mergeCell ref="J82:J89"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="J31:J38"/>
+    <mergeCell ref="J39:J46"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="D67:D72"/>
+    <mergeCell ref="E67:E72"/>
+    <mergeCell ref="B82:B89"/>
+    <mergeCell ref="C82:C89"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="E82:E89"/>
+    <mergeCell ref="E73:E81"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="E39:E46"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
     <mergeCell ref="A73:A81"/>
     <mergeCell ref="B73:B81"/>
     <mergeCell ref="C73:C81"/>
@@ -4448,70 +4501,18 @@
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="C55:C58"/>
     <mergeCell ref="D55:D58"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="E13:E20"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="D39:D46"/>
-    <mergeCell ref="E39:E46"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="E67:E72"/>
-    <mergeCell ref="B82:B89"/>
-    <mergeCell ref="C82:C89"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="E82:E89"/>
-    <mergeCell ref="E73:E81"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="J31:J38"/>
-    <mergeCell ref="J39:J46"/>
-    <mergeCell ref="J90:J93"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="J26:J30"/>
-    <mergeCell ref="B21:B30"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="J62:J66"/>
-    <mergeCell ref="J67:J72"/>
-    <mergeCell ref="J73:J81"/>
-    <mergeCell ref="J82:J89"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="E5:E12"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
